--- a/Data/ns_os_all_MetaData.xlsx
+++ b/Data/ns_os_all_MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\igsareebgslsbs1\Users\MVinson\MyDocuments\R\R_Projects\RVCAT_project\Plots and Tables\RVCAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\igsareebgslsbs1\Users\MVinson\MyDocuments\R\R_Projects\RVCAT_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61BE125-CEA9-4222-A3DB-7E3B4A609F6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE28CA3-6F88-4BC6-B79B-83A023FE4F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47904" yWindow="1842" windowWidth="14592" windowHeight="18792" xr2:uid="{9BE9B0F6-65E3-4F9A-B757-AE5DC5E2145D}"/>
+    <workbookView xWindow="63654" yWindow="3792" windowWidth="28992" windowHeight="15180" xr2:uid="{9BE9B0F6-65E3-4F9A-B757-AE5DC5E2145D}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>Sheet</t>
   </si>
@@ -42,21 +42,12 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Near_Shore_Zeros</t>
-  </si>
-  <si>
     <t>SPECIES</t>
   </si>
   <si>
-    <t>USGS Lake Superior Biological Station species code</t>
-  </si>
-  <si>
     <t>OP_ID</t>
   </si>
   <si>
-    <t>Trawl identification number</t>
-  </si>
-  <si>
     <t>OP_DATE</t>
   </si>
   <si>
@@ -72,15 +63,6 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t>code for the research vessel used. 25=R/V Kiyi, 1=R/V Siscowet, 95=R/V Coaster, 11=R/V Grayling</t>
-  </si>
-  <si>
-    <t>TARGET</t>
-  </si>
-  <si>
-    <t>USGS Lake Superior Biological Station code for particular surveys. Target is 2 our spring nearshore survey</t>
-  </si>
-  <si>
     <t>LOCATION</t>
   </si>
   <si>
@@ -99,12 +81,6 @@
     <t>Longitude at the middle of the trawl path. When no latitude was collected (early samples) the mean of all trawls at that site was used.</t>
   </si>
   <si>
-    <t>TR_DESIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trawl type, these surveys are all bottom trawls, but there are two codes. Code 4=chain footrope trawl, and Code 25= roller trawl. Only a couple sites with particularly rocky/uneven bottoms are sampled with a roller trawl. </t>
-  </si>
-  <si>
     <t>BEG_DEPTH</t>
   </si>
   <si>
@@ -132,90 +108,21 @@
     <t>NOHA</t>
   </si>
   <si>
-    <t>number of Lake Whitefish per hectare</t>
-  </si>
-  <si>
     <t>KGHA</t>
   </si>
   <si>
-    <t>kilograms of Lake Whitefish per hectare</t>
-  </si>
-  <si>
     <t>COMMON_NAME</t>
   </si>
   <si>
     <t>common name of the fish</t>
   </si>
   <si>
-    <t>Off_Shore_Zeros</t>
-  </si>
-  <si>
-    <t>SCI_NAME</t>
-  </si>
-  <si>
     <t>scientific name of the fish</t>
   </si>
   <si>
-    <t>USGS Lake Superior Biological Station code for particular surveys. Target is 117 and 118 for our offshore survey</t>
-  </si>
-  <si>
-    <t>Nearshore_NoZeros</t>
-  </si>
-  <si>
-    <t>Offshore_NoZeros</t>
-  </si>
-  <si>
-    <t>Effort_CurrentYear</t>
-  </si>
-  <si>
-    <t>USGS Lake Superior Biological Station code for particular surveys. Target 2 = nearshore survey. Targets 117 and 118 are offshore survey. Target 106 is Chequamegon Bay survey</t>
-  </si>
-  <si>
-    <t>vars</t>
-  </si>
-  <si>
-    <t>The variable or attribute that summary data are provided for</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>minimum value</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>maximum value</t>
-  </si>
-  <si>
-    <t>Age-1_Fish</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Year the samples were collected</t>
   </si>
   <si>
-    <t>Year Class</t>
-  </si>
-  <si>
     <t>The year the fish was born, which for this data set is one year less than the collection year</t>
   </si>
   <si>
@@ -264,33 +171,15 @@
     <t>NS_table</t>
   </si>
   <si>
-    <t>Sites</t>
-  </si>
-  <si>
     <t>Number of nearshore sites sampled</t>
   </si>
   <si>
-    <t>No fish sites</t>
-  </si>
-  <si>
-    <t>Number of sites where no fish were caught at nearshore sites</t>
-  </si>
-  <si>
-    <t>Total species collected</t>
-  </si>
-  <si>
     <t>Total number of fish species collected at nearshore sites</t>
   </si>
   <si>
-    <t>Total biomass</t>
-  </si>
-  <si>
     <t>Average lakewide total (all fish species) biomass in kg/ha at nearshore sites</t>
   </si>
   <si>
-    <t>Median biomass</t>
-  </si>
-  <si>
     <t>Median lakewide total (all fish species) biomass in kg/ha at nearshore sites</t>
   </si>
   <si>
@@ -315,55 +204,295 @@
     <t>Average lakewide biomass of lean Lake Trout in kg/ha at nearshore sites</t>
   </si>
   <si>
-    <t>Average lakewide biomass of siscowet Lake Trout in kg/ha at nearshore sites</t>
-  </si>
-  <si>
     <t>Burbot</t>
   </si>
   <si>
     <t>Average lakewide biomass of Burbot in kg/ha at nearshore sites</t>
   </si>
   <si>
-    <t>Sculpins</t>
-  </si>
-  <si>
-    <t>Average lakewide biomass of  sculpin (Slimy, Spoonhead, and Deepwater) in kg/ha at nearshore survey sites</t>
-  </si>
-  <si>
-    <t>Misc.Spp</t>
-  </si>
-  <si>
-    <t>Average lakewide biomass of all other miscellaneous species in kg/ha at nearshore sites</t>
-  </si>
-  <si>
-    <t>OS_Table</t>
+    <t>Deepwater Sculpin</t>
+  </si>
+  <si>
+    <t>Catch_NoZeros</t>
+  </si>
+  <si>
+    <t>USGS Lake Superior Biological Station trawl code</t>
+  </si>
+  <si>
+    <t>nearshore of offshore</t>
+  </si>
+  <si>
+    <t>Surface.Temp</t>
+  </si>
+  <si>
+    <t>surface water temperature in celsius, an average of temperature at beginning and ending trawl locations if both measurements available</t>
+  </si>
+  <si>
+    <t>Bottom.Temp</t>
+  </si>
+  <si>
+    <t>bottom water temperature in celsius, an average of temperature at beginning and ending trawl locations if both measurements available</t>
+  </si>
+  <si>
+    <t>TOW_TIME</t>
+  </si>
+  <si>
+    <t>duration of the trawl in minutes</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>distance of the trawl in miles</t>
+  </si>
+  <si>
+    <t>USGS Great Lakes Science Center species code</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC_NAME</t>
+  </si>
+  <si>
+    <t>number of fish per hectare</t>
+  </si>
+  <si>
+    <t>kilograms of fish per hectare</t>
+  </si>
+  <si>
+    <t>TRAWL_TYPE</t>
+  </si>
+  <si>
+    <t>bottom, surface, or mid-water trawl</t>
+  </si>
+  <si>
+    <t>AnnualSummary</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>mean.dist.km</t>
+  </si>
+  <si>
+    <t>average trawl distance in kg</t>
+  </si>
+  <si>
+    <t>min.dist.km</t>
+  </si>
+  <si>
+    <t>minimum trawl distance in kg</t>
+  </si>
+  <si>
+    <t>max.dist.km</t>
+  </si>
+  <si>
+    <t>maximum trawl distance in kg</t>
+  </si>
+  <si>
+    <t>mean.towtime</t>
+  </si>
+  <si>
+    <t>average trawl duration in minutes</t>
+  </si>
+  <si>
+    <t>min.towtime</t>
+  </si>
+  <si>
+    <t>minimum trawl duration in minutes</t>
+  </si>
+  <si>
+    <t>max.towtime</t>
+  </si>
+  <si>
+    <t>maximum trawl duration in minutes</t>
+  </si>
+  <si>
+    <t>min.begdepth</t>
+  </si>
+  <si>
+    <t>minimum trawl beginning depth in meters</t>
+  </si>
+  <si>
+    <t>max.begdepth</t>
+  </si>
+  <si>
+    <t>maximum trawl beginning depth in meters</t>
+  </si>
+  <si>
+    <t>min.enddepth</t>
+  </si>
+  <si>
+    <t>minimum trawl ending depth in meters</t>
+  </si>
+  <si>
+    <t>max.enddepth</t>
+  </si>
+  <si>
+    <t>maximum trawl ending depth in meters</t>
+  </si>
+  <si>
+    <t>mean.surface.temp</t>
+  </si>
+  <si>
+    <t>average surface temperature across all sites</t>
+  </si>
+  <si>
+    <t>min.surface.temp</t>
+  </si>
+  <si>
+    <t>minimum surface temperature across all sites</t>
+  </si>
+  <si>
+    <t>max.surface.temp</t>
+  </si>
+  <si>
+    <t>maximum surface tempeature across all sites</t>
+  </si>
+  <si>
+    <t>mean.bottom.temp</t>
+  </si>
+  <si>
+    <t>average bottom temperature across all sites</t>
+  </si>
+  <si>
+    <t>min.bottom.temp</t>
+  </si>
+  <si>
+    <t>minimum bottom temperature across all sites</t>
+  </si>
+  <si>
+    <t>max.bottom.temp</t>
+  </si>
+  <si>
+    <t>maximum bottom tempeature across all sites</t>
+  </si>
+  <si>
+    <t>mean.kg</t>
+  </si>
+  <si>
+    <t>average fish biomass in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>median.kg</t>
+  </si>
+  <si>
+    <t>median fish biomass in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>sd.kg</t>
+  </si>
+  <si>
+    <t>standard deviation in fish biomass in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>std.error.kg</t>
+  </si>
+  <si>
+    <t>standard error in fish biomass in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>skewness.kg</t>
+  </si>
+  <si>
+    <t>skewness in fish biomass across all sites</t>
+  </si>
+  <si>
+    <t>mean.num</t>
+  </si>
+  <si>
+    <t>average fish abundance in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>median.num</t>
+  </si>
+  <si>
+    <t>median fish abundance in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>sd.num</t>
+  </si>
+  <si>
+    <t>standard deviation in fish abundance in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>std.error.num</t>
+  </si>
+  <si>
+    <t>standard error in fish abundance in kg per hectare across all sites</t>
+  </si>
+  <si>
+    <t>skewness.num</t>
+  </si>
+  <si>
+    <t>skewness in fish abundance across all sites</t>
+  </si>
+  <si>
+    <t>fishes.mean</t>
+  </si>
+  <si>
+    <t>mean number of fish species collected across all sites</t>
+  </si>
+  <si>
+    <t>fishes.min</t>
+  </si>
+  <si>
+    <t>minimum number of fish species collected across all sites</t>
+  </si>
+  <si>
+    <t>fishes.max</t>
+  </si>
+  <si>
+    <t>maximum number of fish species collected across all sites</t>
+  </si>
+  <si>
+    <t>fishes.total</t>
+  </si>
+  <si>
+    <t>total number of fish species collected across all sites</t>
+  </si>
+  <si>
+    <t>Average number of fish species collected at nearshore sites</t>
+  </si>
+  <si>
+    <t>Slimy Sculpin</t>
+  </si>
+  <si>
+    <t>Average lakewide biomass of slimy sculpin in kg/ha at nearshore survey sites</t>
+  </si>
+  <si>
+    <t>Spoonhead Sculpin</t>
+  </si>
+  <si>
+    <t>Average lakewide biomass of spoonhead sculpin in kg/ha at nearshore survey sites</t>
+  </si>
+  <si>
+    <t>Average lakewide biomass of deepwater sculpin in kg/ha at nearshore survey sites</t>
+  </si>
+  <si>
+    <t>OS_table</t>
+  </si>
+  <si>
+    <t>Age1_Fish</t>
+  </si>
+  <si>
+    <t>Year class</t>
   </si>
   <si>
     <t>Number of offshore sites sampled</t>
   </si>
   <si>
-    <t>Number of sites where no fish were caught at offshore sites</t>
-  </si>
-  <si>
-    <t>Total number of fish species collected at offshore sites</t>
-  </si>
-  <si>
     <t>Average lakewide total (all fish species) biomass in kg/ha at offshore sites</t>
   </si>
   <si>
-    <t>Median lakewide total (all fish species) biomass in kg/ha at offshore sites</t>
-  </si>
-  <si>
-    <t>Average lakewide biomass of Kiyi in kg/ha at offshore sites</t>
-  </si>
-  <si>
-    <t>Deepwater Sculpin</t>
-  </si>
-  <si>
-    <t>Average lakewide biomass of lean Lake Trout in kg/ha at offshore sites</t>
-  </si>
-  <si>
-    <t>Average lakewide biomass of siscowet Lake Trout in kg/ha at offshore sites</t>
+    <t>Average lakewide biomass of kiyi in kg/ha at offshore sites</t>
+  </si>
+  <si>
+    <t>Average lakewide biomass of siscowet lake trout in kg/ha at offshore sites</t>
+  </si>
+  <si>
+    <t>Average lakewide biomass of deepwater sculpin in kg/ha at offshore sites</t>
+  </si>
+  <si>
+    <t>survey</t>
   </si>
 </sst>
 </file>
@@ -399,11 +528,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,18 +844,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76277B-4E26-4331-963D-A2E2B5F032E3}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -745,1245 +871,959 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
+      <c r="C16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>19</v>
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>31</v>
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>45</v>
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
-        <v>76</v>
-      </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" t="s">
-        <v>101</v>
-      </c>
-      <c r="B107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" t="s">
-        <v>85</v>
-      </c>
-      <c r="C111" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C112" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C114" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
